--- a/data/test.xlsx
+++ b/data/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cesar\Desktop\analisis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8784EA6E-3FEA-4FD5-A2FF-29B0F524BC4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCDAA28A-55BE-4ACF-9A74-3CC58A9D0CA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0C7E93F8-8D3B-435A-AAF7-FED793D86AF9}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="85">
   <si>
     <t>MOTO</t>
   </si>
@@ -291,6 +291,9 @@
   </si>
   <si>
     <t>06:00 a 6:15</t>
+  </si>
+  <si>
+    <t>TRACTORES</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -473,6 +476,19 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -492,16 +508,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -819,52 +825,53 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C4E2274-8686-4763-A3E6-C18FBE049BB9}">
-  <dimension ref="A1:S67"/>
+  <dimension ref="A1:T67"/>
   <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" topLeftCell="A16" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="55" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" topLeftCell="A12" zoomScale="70" zoomScaleNormal="55" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
-    <col min="2" max="17" width="16.7109375" customWidth="1"/>
-    <col min="19" max="19" width="35" customWidth="1"/>
+    <col min="2" max="18" width="16.7109375" customWidth="1"/>
+    <col min="20" max="20" width="35" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:19" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
         <v>54</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="11" t="s">
+      <c r="C1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="14" t="s">
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="Q1" s="14"/>
-    </row>
-    <row r="2" spans="1:18" ht="56.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="13"/>
+      <c r="R1" s="19"/>
+    </row>
+    <row r="2" spans="1:19" ht="56.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="18"/>
       <c r="B2" s="5" t="s">
         <v>51</v>
       </c>
@@ -895,26 +902,29 @@
       <c r="K2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="L2" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="M2" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="N2" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="O2" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="O2" s="8" t="s">
+      <c r="P2" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="P2" s="7" t="s">
+      <c r="Q2" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="Q2" s="7" t="s">
+      <c r="R2" s="7" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="56.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" ht="56.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>83</v>
       </c>
@@ -948,27 +958,30 @@
       <c r="K3" s="6">
         <v>0</v>
       </c>
-      <c r="L3" s="7">
-        <v>5</v>
+      <c r="L3" s="6">
+        <v>0</v>
       </c>
       <c r="M3" s="7">
         <v>5</v>
       </c>
-      <c r="N3" s="8">
+      <c r="N3" s="7">
         <v>5</v>
       </c>
       <c r="O3" s="8">
         <v>5</v>
       </c>
-      <c r="P3" s="7">
+      <c r="P3" s="8">
+        <v>5</v>
+      </c>
+      <c r="Q3" s="7">
         <v>10</v>
       </c>
-      <c r="Q3" s="7">
+      <c r="R3" s="7">
         <v>6</v>
       </c>
-      <c r="R3" s="17"/>
-    </row>
-    <row r="4" spans="1:18" ht="56.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S3" s="11"/>
+    </row>
+    <row r="4" spans="1:19" ht="56.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>55</v>
       </c>
@@ -1002,27 +1015,30 @@
       <c r="K4" s="6">
         <v>1</v>
       </c>
-      <c r="L4" s="7">
+      <c r="L4" s="6">
         <v>0</v>
       </c>
       <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
         <v>9</v>
       </c>
-      <c r="N4" s="8">
+      <c r="O4" s="8">
         <v>8</v>
       </c>
-      <c r="O4" s="8">
-        <v>3</v>
-      </c>
-      <c r="P4" s="7">
-        <v>5</v>
+      <c r="P4" s="8">
+        <v>3</v>
       </c>
       <c r="Q4" s="7">
-        <v>3</v>
-      </c>
-      <c r="R4" s="17"/>
-    </row>
-    <row r="5" spans="1:18" ht="56.45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="R4" s="7">
+        <v>3</v>
+      </c>
+      <c r="S4" s="11"/>
+    </row>
+    <row r="5" spans="1:19" ht="56.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>56</v>
       </c>
@@ -1056,27 +1072,30 @@
       <c r="K5" s="6">
         <v>1</v>
       </c>
-      <c r="L5" s="7">
-        <v>2</v>
+      <c r="L5" s="6">
+        <v>0</v>
       </c>
       <c r="M5" s="7">
+        <v>2</v>
+      </c>
+      <c r="N5" s="7">
         <v>8</v>
       </c>
-      <c r="N5" s="8">
+      <c r="O5" s="8">
         <v>9</v>
       </c>
-      <c r="O5" s="8">
-        <v>1</v>
-      </c>
-      <c r="P5" s="7">
-        <v>5</v>
+      <c r="P5" s="8">
+        <v>1</v>
       </c>
       <c r="Q5" s="7">
+        <v>5</v>
+      </c>
+      <c r="R5" s="7">
         <v>9</v>
       </c>
-      <c r="R5" s="17"/>
-    </row>
-    <row r="6" spans="1:18" ht="56.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S5" s="11"/>
+    </row>
+    <row r="6" spans="1:19" ht="56.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>57</v>
       </c>
@@ -1110,27 +1129,30 @@
       <c r="K6" s="6">
         <v>0</v>
       </c>
-      <c r="L6" s="7">
-        <v>1</v>
+      <c r="L6" s="6">
+        <v>0</v>
       </c>
       <c r="M6" s="7">
+        <v>1</v>
+      </c>
+      <c r="N6" s="7">
         <v>7</v>
       </c>
-      <c r="N6" s="8">
+      <c r="O6" s="8">
         <v>7</v>
       </c>
-      <c r="O6" s="8">
-        <v>1</v>
-      </c>
-      <c r="P6" s="7">
+      <c r="P6" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="7">
         <v>6</v>
       </c>
-      <c r="Q6" s="7">
-        <v>4</v>
-      </c>
-      <c r="R6" s="17"/>
-    </row>
-    <row r="7" spans="1:18" ht="56.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R6" s="7">
+        <v>4</v>
+      </c>
+      <c r="S6" s="11"/>
+    </row>
+    <row r="7" spans="1:19" ht="56.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>58</v>
       </c>
@@ -1164,27 +1186,30 @@
       <c r="K7" s="6">
         <v>3</v>
       </c>
-      <c r="L7" s="7">
-        <v>4</v>
+      <c r="L7" s="6">
+        <v>0</v>
       </c>
       <c r="M7" s="7">
+        <v>4</v>
+      </c>
+      <c r="N7" s="7">
         <v>10</v>
       </c>
-      <c r="N7" s="8">
-        <v>5</v>
-      </c>
       <c r="O7" s="8">
-        <v>0</v>
-      </c>
-      <c r="P7" s="7">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="P7" s="8">
+        <v>0</v>
       </c>
       <c r="Q7" s="7">
-        <v>4</v>
-      </c>
-      <c r="R7" s="17"/>
-    </row>
-    <row r="8" spans="1:18" ht="56.45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="R7" s="7">
+        <v>4</v>
+      </c>
+      <c r="S7" s="11"/>
+    </row>
+    <row r="8" spans="1:19" ht="56.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>59</v>
       </c>
@@ -1218,27 +1243,30 @@
       <c r="K8" s="6">
         <v>4</v>
       </c>
-      <c r="L8" s="7">
-        <v>3</v>
+      <c r="L8" s="6">
+        <v>0</v>
       </c>
       <c r="M8" s="7">
+        <v>3</v>
+      </c>
+      <c r="N8" s="7">
         <v>10</v>
       </c>
-      <c r="N8" s="8">
+      <c r="O8" s="8">
         <v>9</v>
       </c>
-      <c r="O8" s="8">
-        <v>0</v>
-      </c>
-      <c r="P8" s="7">
-        <v>4</v>
+      <c r="P8" s="8">
+        <v>0</v>
       </c>
       <c r="Q8" s="7">
         <v>4</v>
       </c>
-      <c r="R8" s="17"/>
-    </row>
-    <row r="9" spans="1:18" ht="56.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R8" s="7">
+        <v>4</v>
+      </c>
+      <c r="S8" s="11"/>
+    </row>
+    <row r="9" spans="1:19" ht="56.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>60</v>
       </c>
@@ -1272,27 +1300,30 @@
       <c r="K9" s="6">
         <v>1</v>
       </c>
-      <c r="L9" s="7">
+      <c r="L9" s="6">
         <v>0</v>
       </c>
       <c r="M9" s="7">
+        <v>0</v>
+      </c>
+      <c r="N9" s="7">
         <v>9</v>
       </c>
-      <c r="N9" s="8">
+      <c r="O9" s="8">
         <v>8</v>
       </c>
-      <c r="O9" s="8">
-        <v>0</v>
-      </c>
-      <c r="P9" s="7">
-        <v>2</v>
+      <c r="P9" s="8">
+        <v>0</v>
       </c>
       <c r="Q9" s="7">
+        <v>2</v>
+      </c>
+      <c r="R9" s="7">
         <v>6</v>
       </c>
-      <c r="R9" s="17"/>
-    </row>
-    <row r="10" spans="1:18" ht="56.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S9" s="11"/>
+    </row>
+    <row r="10" spans="1:19" ht="56.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>61</v>
       </c>
@@ -1326,27 +1357,30 @@
       <c r="K10" s="6">
         <v>2</v>
       </c>
-      <c r="L10" s="7">
-        <v>3</v>
+      <c r="L10" s="6">
+        <v>0</v>
       </c>
       <c r="M10" s="7">
+        <v>3</v>
+      </c>
+      <c r="N10" s="7">
         <v>10</v>
       </c>
-      <c r="N10" s="8">
+      <c r="O10" s="8">
         <v>18</v>
       </c>
-      <c r="O10" s="8">
-        <v>0</v>
-      </c>
-      <c r="P10" s="7">
-        <v>1</v>
+      <c r="P10" s="8">
+        <v>0</v>
       </c>
       <c r="Q10" s="7">
-        <v>2</v>
-      </c>
-      <c r="R10" s="17"/>
-    </row>
-    <row r="11" spans="1:18" ht="56.45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="R10" s="7">
+        <v>2</v>
+      </c>
+      <c r="S10" s="11"/>
+    </row>
+    <row r="11" spans="1:19" ht="56.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>62</v>
       </c>
@@ -1380,27 +1414,30 @@
       <c r="K11" s="6">
         <v>2</v>
       </c>
-      <c r="L11" s="7">
-        <v>3</v>
+      <c r="L11" s="6">
+        <v>0</v>
       </c>
       <c r="M11" s="7">
+        <v>3</v>
+      </c>
+      <c r="N11" s="7">
         <v>7</v>
       </c>
-      <c r="N11" s="8">
+      <c r="O11" s="8">
         <v>9</v>
       </c>
-      <c r="O11" s="8">
-        <v>0</v>
-      </c>
-      <c r="P11" s="7">
-        <v>2</v>
+      <c r="P11" s="8">
+        <v>0</v>
       </c>
       <c r="Q11" s="7">
-        <v>3</v>
-      </c>
-      <c r="R11" s="17"/>
-    </row>
-    <row r="12" spans="1:18" ht="56.45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="R11" s="7">
+        <v>3</v>
+      </c>
+      <c r="S11" s="11"/>
+    </row>
+    <row r="12" spans="1:19" ht="56.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>63</v>
       </c>
@@ -1434,27 +1471,30 @@
       <c r="K12" s="6">
         <v>3</v>
       </c>
-      <c r="L12" s="7">
-        <v>3</v>
+      <c r="L12" s="6">
+        <v>0</v>
       </c>
       <c r="M12" s="7">
-        <v>5</v>
-      </c>
-      <c r="N12" s="8">
+        <v>3</v>
+      </c>
+      <c r="N12" s="7">
+        <v>5</v>
+      </c>
+      <c r="O12" s="8">
         <v>14</v>
       </c>
-      <c r="O12" s="8">
-        <v>0</v>
-      </c>
-      <c r="P12" s="7">
-        <v>1</v>
+      <c r="P12" s="8">
+        <v>0</v>
       </c>
       <c r="Q12" s="7">
-        <v>4</v>
-      </c>
-      <c r="R12" s="17"/>
-    </row>
-    <row r="13" spans="1:18" ht="56.45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="R12" s="7">
+        <v>4</v>
+      </c>
+      <c r="S12" s="11"/>
+    </row>
+    <row r="13" spans="1:19" ht="56.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>64</v>
       </c>
@@ -1488,27 +1528,30 @@
       <c r="K13" s="6">
         <v>2</v>
       </c>
-      <c r="L13" s="7">
-        <v>3</v>
+      <c r="L13" s="6">
+        <v>0</v>
       </c>
       <c r="M13" s="7">
+        <v>3</v>
+      </c>
+      <c r="N13" s="7">
         <v>8</v>
       </c>
-      <c r="N13" s="9">
+      <c r="O13" s="9">
         <v>13</v>
       </c>
-      <c r="O13" s="8">
-        <v>0</v>
-      </c>
-      <c r="P13" s="7">
-        <v>2</v>
+      <c r="P13" s="8">
+        <v>0</v>
       </c>
       <c r="Q13" s="7">
-        <v>5</v>
-      </c>
-      <c r="R13" s="17"/>
-    </row>
-    <row r="14" spans="1:18" ht="56.45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="R13" s="7">
+        <v>5</v>
+      </c>
+      <c r="S13" s="11"/>
+    </row>
+    <row r="14" spans="1:19" ht="56.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>65</v>
       </c>
@@ -1542,27 +1585,30 @@
       <c r="K14" s="6">
         <v>2</v>
       </c>
-      <c r="L14" s="7">
-        <v>3</v>
+      <c r="L14" s="6">
+        <v>0</v>
       </c>
       <c r="M14" s="7">
+        <v>3</v>
+      </c>
+      <c r="N14" s="7">
         <v>8</v>
       </c>
-      <c r="N14" s="9">
+      <c r="O14" s="9">
         <v>13</v>
       </c>
-      <c r="O14" s="8">
-        <v>1</v>
-      </c>
-      <c r="P14" s="7">
+      <c r="P14" s="8">
         <v>1</v>
       </c>
       <c r="Q14" s="7">
-        <v>4</v>
-      </c>
-      <c r="R14" s="17"/>
-    </row>
-    <row r="15" spans="1:18" ht="56.45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="R14" s="7">
+        <v>4</v>
+      </c>
+      <c r="S14" s="11"/>
+    </row>
+    <row r="15" spans="1:19" ht="56.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>66</v>
       </c>
@@ -1596,27 +1642,30 @@
       <c r="K15" s="6">
         <v>1</v>
       </c>
-      <c r="L15" s="7">
-        <v>1</v>
+      <c r="L15" s="6">
+        <v>0</v>
       </c>
       <c r="M15" s="7">
+        <v>1</v>
+      </c>
+      <c r="N15" s="7">
         <v>6</v>
       </c>
-      <c r="N15" s="9">
+      <c r="O15" s="9">
         <v>10</v>
       </c>
-      <c r="O15" s="8">
-        <v>1</v>
-      </c>
-      <c r="P15" s="7">
-        <v>4</v>
+      <c r="P15" s="8">
+        <v>1</v>
       </c>
       <c r="Q15" s="7">
         <v>4</v>
       </c>
-      <c r="R15" s="17"/>
-    </row>
-    <row r="16" spans="1:18" ht="56.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R15" s="7">
+        <v>4</v>
+      </c>
+      <c r="S15" s="11"/>
+    </row>
+    <row r="16" spans="1:19" ht="56.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>67</v>
       </c>
@@ -1650,27 +1699,30 @@
       <c r="K16" s="6">
         <v>0</v>
       </c>
-      <c r="L16" s="7">
-        <v>2</v>
+      <c r="L16" s="6">
+        <v>0</v>
       </c>
       <c r="M16" s="7">
+        <v>2</v>
+      </c>
+      <c r="N16" s="7">
         <v>9</v>
       </c>
-      <c r="N16" s="9">
+      <c r="O16" s="9">
         <v>26</v>
       </c>
-      <c r="O16" s="8">
-        <v>0</v>
-      </c>
-      <c r="P16" s="7">
+      <c r="P16" s="8">
         <v>0</v>
       </c>
       <c r="Q16" s="7">
+        <v>0</v>
+      </c>
+      <c r="R16" s="7">
         <v>7</v>
       </c>
-      <c r="R16" s="17"/>
-    </row>
-    <row r="17" spans="1:19" ht="56.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S16" s="11"/>
+    </row>
+    <row r="17" spans="1:20" ht="56.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>68</v>
       </c>
@@ -1704,27 +1756,30 @@
       <c r="K17" s="6">
         <v>2</v>
       </c>
-      <c r="L17" s="7">
-        <v>1</v>
+      <c r="L17" s="6">
+        <v>0</v>
       </c>
       <c r="M17" s="7">
-        <v>4</v>
-      </c>
-      <c r="N17" s="9">
+        <v>1</v>
+      </c>
+      <c r="N17" s="7">
+        <v>4</v>
+      </c>
+      <c r="O17" s="9">
         <v>15</v>
       </c>
-      <c r="O17" s="8">
-        <v>1</v>
-      </c>
-      <c r="P17" s="7">
-        <v>4</v>
+      <c r="P17" s="8">
+        <v>1</v>
       </c>
       <c r="Q17" s="7">
-        <v>1</v>
-      </c>
-      <c r="R17" s="17"/>
-    </row>
-    <row r="18" spans="1:19" ht="56.45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="R17" s="7">
+        <v>1</v>
+      </c>
+      <c r="S17" s="11"/>
+    </row>
+    <row r="18" spans="1:20" ht="56.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>82</v>
       </c>
@@ -1758,27 +1813,30 @@
       <c r="K18" s="6">
         <v>1</v>
       </c>
-      <c r="L18" s="7">
-        <v>2</v>
+      <c r="L18" s="6">
+        <v>0</v>
       </c>
       <c r="M18" s="7">
+        <v>2</v>
+      </c>
+      <c r="N18" s="7">
         <v>11</v>
       </c>
-      <c r="N18" s="9">
+      <c r="O18" s="9">
         <v>21</v>
       </c>
-      <c r="O18" s="8">
-        <v>0</v>
-      </c>
-      <c r="P18" s="7">
-        <v>1</v>
+      <c r="P18" s="8">
+        <v>0</v>
       </c>
       <c r="Q18" s="7">
-        <v>3</v>
-      </c>
-      <c r="R18" s="17"/>
-    </row>
-    <row r="19" spans="1:19" ht="56.45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="R18" s="7">
+        <v>3</v>
+      </c>
+      <c r="S18" s="11"/>
+    </row>
+    <row r="19" spans="1:20" ht="56.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>69</v>
       </c>
@@ -1812,27 +1870,30 @@
       <c r="K19" s="6">
         <v>2</v>
       </c>
-      <c r="L19" s="7">
-        <v>1</v>
+      <c r="L19" s="6">
+        <v>0</v>
       </c>
       <c r="M19" s="7">
+        <v>1</v>
+      </c>
+      <c r="N19" s="7">
         <v>8</v>
       </c>
-      <c r="N19" s="9">
+      <c r="O19" s="9">
         <v>17</v>
       </c>
-      <c r="O19" s="8">
-        <v>0</v>
-      </c>
-      <c r="P19" s="7">
+      <c r="P19" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="7">
         <v>7</v>
       </c>
-      <c r="Q19" s="7">
-        <v>4</v>
-      </c>
-      <c r="R19" s="17"/>
-    </row>
-    <row r="20" spans="1:19" ht="56.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R19" s="7">
+        <v>4</v>
+      </c>
+      <c r="S19" s="11"/>
+    </row>
+    <row r="20" spans="1:20" ht="56.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>70</v>
       </c>
@@ -1866,27 +1927,30 @@
       <c r="K20" s="6">
         <v>0</v>
       </c>
-      <c r="L20" s="7">
-        <v>4</v>
+      <c r="L20" s="6">
+        <v>0</v>
       </c>
       <c r="M20" s="7">
-        <v>5</v>
-      </c>
-      <c r="N20" s="9">
+        <v>4</v>
+      </c>
+      <c r="N20" s="7">
+        <v>5</v>
+      </c>
+      <c r="O20" s="9">
         <v>17</v>
       </c>
-      <c r="O20" s="8">
-        <v>2</v>
-      </c>
-      <c r="P20" s="7">
-        <v>1</v>
+      <c r="P20" s="8">
+        <v>2</v>
       </c>
       <c r="Q20" s="7">
+        <v>1</v>
+      </c>
+      <c r="R20" s="7">
         <v>9</v>
       </c>
-      <c r="R20" s="17"/>
-    </row>
-    <row r="21" spans="1:19" ht="56.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S20" s="11"/>
+    </row>
+    <row r="21" spans="1:20" ht="56.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>71</v>
       </c>
@@ -1920,27 +1984,30 @@
       <c r="K21" s="6">
         <v>2</v>
       </c>
-      <c r="L21" s="7">
-        <v>2</v>
+      <c r="L21" s="6">
+        <v>0</v>
       </c>
       <c r="M21" s="7">
+        <v>2</v>
+      </c>
+      <c r="N21" s="7">
         <v>6</v>
       </c>
-      <c r="N21" s="9">
+      <c r="O21" s="9">
         <v>21</v>
       </c>
-      <c r="O21" s="8">
-        <v>1</v>
-      </c>
-      <c r="P21" s="7">
-        <v>5</v>
+      <c r="P21" s="8">
+        <v>1</v>
       </c>
       <c r="Q21" s="7">
-        <v>3</v>
-      </c>
-      <c r="R21" s="17"/>
-    </row>
-    <row r="22" spans="1:19" ht="56.45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="R21" s="7">
+        <v>3</v>
+      </c>
+      <c r="S21" s="11"/>
+    </row>
+    <row r="22" spans="1:20" ht="56.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>72</v>
       </c>
@@ -1974,28 +2041,31 @@
       <c r="K22" s="6">
         <v>0</v>
       </c>
-      <c r="L22" s="7">
-        <v>3</v>
+      <c r="L22" s="6">
+        <v>0</v>
       </c>
       <c r="M22" s="7">
+        <v>3</v>
+      </c>
+      <c r="N22" s="7">
         <v>7</v>
       </c>
-      <c r="N22" s="9">
+      <c r="O22" s="9">
         <v>10</v>
       </c>
-      <c r="O22" s="20">
-        <v>0</v>
-      </c>
-      <c r="P22" s="7">
-        <v>4</v>
+      <c r="P22" s="14">
+        <v>0</v>
       </c>
       <c r="Q22" s="7">
-        <v>1</v>
-      </c>
-      <c r="R22" s="17"/>
-      <c r="S22" s="18"/>
-    </row>
-    <row r="23" spans="1:19" ht="56.45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="R22" s="7">
+        <v>1</v>
+      </c>
+      <c r="S22" s="11"/>
+      <c r="T22" s="12"/>
+    </row>
+    <row r="23" spans="1:20" ht="56.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>73</v>
       </c>
@@ -2029,27 +2099,30 @@
       <c r="K23" s="6">
         <v>1</v>
       </c>
-      <c r="L23" s="7">
+      <c r="L23" s="6">
+        <v>0</v>
+      </c>
+      <c r="M23" s="7">
         <v>6</v>
       </c>
-      <c r="M23" s="7">
+      <c r="N23" s="7">
         <v>10</v>
       </c>
-      <c r="N23" s="9">
+      <c r="O23" s="9">
         <v>25</v>
       </c>
-      <c r="O23" s="20">
-        <v>0</v>
-      </c>
-      <c r="P23" s="7">
-        <v>2</v>
+      <c r="P23" s="14">
+        <v>0</v>
       </c>
       <c r="Q23" s="7">
-        <v>5</v>
-      </c>
-      <c r="R23" s="17"/>
-    </row>
-    <row r="24" spans="1:19" ht="56.45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="R23" s="7">
+        <v>5</v>
+      </c>
+      <c r="S23" s="11"/>
+    </row>
+    <row r="24" spans="1:20" ht="56.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>74</v>
       </c>
@@ -2083,27 +2156,30 @@
       <c r="K24" s="6">
         <v>0</v>
       </c>
-      <c r="L24" s="7">
+      <c r="L24" s="6">
         <v>1</v>
       </c>
       <c r="M24" s="7">
-        <v>5</v>
-      </c>
-      <c r="N24" s="9">
+        <v>1</v>
+      </c>
+      <c r="N24" s="7">
+        <v>5</v>
+      </c>
+      <c r="O24" s="9">
         <v>17</v>
       </c>
-      <c r="O24" s="20">
-        <v>0</v>
-      </c>
-      <c r="P24" s="7">
-        <v>5</v>
+      <c r="P24" s="14">
+        <v>0</v>
       </c>
       <c r="Q24" s="7">
-        <v>3</v>
-      </c>
-      <c r="R24" s="17"/>
-    </row>
-    <row r="25" spans="1:19" ht="56.45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="R24" s="7">
+        <v>3</v>
+      </c>
+      <c r="S24" s="11"/>
+    </row>
+    <row r="25" spans="1:20" ht="56.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>75</v>
       </c>
@@ -2137,27 +2213,30 @@
       <c r="K25" s="6">
         <v>4</v>
       </c>
-      <c r="L25" s="7">
-        <v>4</v>
+      <c r="L25" s="6">
+        <v>1</v>
       </c>
       <c r="M25" s="7">
+        <v>4</v>
+      </c>
+      <c r="N25" s="7">
         <v>8</v>
       </c>
-      <c r="N25" s="9">
+      <c r="O25" s="9">
         <v>14</v>
       </c>
-      <c r="O25" s="20">
-        <v>0</v>
-      </c>
-      <c r="P25" s="7">
-        <v>4</v>
+      <c r="P25" s="14">
+        <v>0</v>
       </c>
       <c r="Q25" s="7">
-        <v>2</v>
-      </c>
-      <c r="R25" s="17"/>
-    </row>
-    <row r="26" spans="1:19" ht="56.45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="R25" s="7">
+        <v>2</v>
+      </c>
+      <c r="S25" s="11"/>
+    </row>
+    <row r="26" spans="1:20" ht="56.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>76</v>
       </c>
@@ -2191,27 +2270,30 @@
       <c r="K26" s="6">
         <v>2</v>
       </c>
-      <c r="L26" s="7">
+      <c r="L26" s="6">
         <v>0</v>
       </c>
       <c r="M26" s="7">
-        <v>5</v>
-      </c>
-      <c r="N26" s="9">
+        <v>0</v>
+      </c>
+      <c r="N26" s="7">
+        <v>5</v>
+      </c>
+      <c r="O26" s="9">
         <v>15</v>
       </c>
-      <c r="O26" s="20">
-        <v>0</v>
-      </c>
-      <c r="P26" s="7">
-        <v>2</v>
+      <c r="P26" s="14">
+        <v>0</v>
       </c>
       <c r="Q26" s="7">
-        <v>1</v>
-      </c>
-      <c r="R26" s="17"/>
-    </row>
-    <row r="27" spans="1:19" ht="56.45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="R26" s="7">
+        <v>1</v>
+      </c>
+      <c r="S26" s="11"/>
+    </row>
+    <row r="27" spans="1:20" ht="56.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>77</v>
       </c>
@@ -2245,27 +2327,30 @@
       <c r="K27" s="6">
         <v>2</v>
       </c>
-      <c r="L27" s="7">
-        <v>2</v>
+      <c r="L27" s="6">
+        <v>1</v>
       </c>
       <c r="M27" s="7">
+        <v>2</v>
+      </c>
+      <c r="N27" s="7">
         <v>8</v>
       </c>
-      <c r="N27" s="9">
+      <c r="O27" s="9">
         <v>26</v>
       </c>
-      <c r="O27" s="20">
-        <v>0</v>
-      </c>
-      <c r="P27" s="7">
-        <v>5</v>
+      <c r="P27" s="14">
+        <v>0</v>
       </c>
       <c r="Q27" s="7">
+        <v>5</v>
+      </c>
+      <c r="R27" s="7">
         <v>6</v>
       </c>
-      <c r="R27" s="17"/>
-    </row>
-    <row r="28" spans="1:19" ht="56.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S27" s="11"/>
+    </row>
+    <row r="28" spans="1:20" ht="56.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>78</v>
       </c>
@@ -2299,27 +2384,30 @@
       <c r="K28" s="6">
         <v>1</v>
       </c>
-      <c r="L28" s="7">
-        <v>3</v>
+      <c r="L28" s="6">
+        <v>0</v>
       </c>
       <c r="M28" s="7">
-        <v>4</v>
-      </c>
-      <c r="N28" s="9">
+        <v>3</v>
+      </c>
+      <c r="N28" s="7">
+        <v>4</v>
+      </c>
+      <c r="O28" s="9">
         <v>20</v>
       </c>
-      <c r="O28" s="20">
-        <v>0</v>
-      </c>
-      <c r="P28" s="7">
-        <v>2</v>
+      <c r="P28" s="14">
+        <v>0</v>
       </c>
       <c r="Q28" s="7">
-        <v>1</v>
-      </c>
-      <c r="R28" s="17"/>
-    </row>
-    <row r="29" spans="1:19" ht="56.45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="R28" s="7">
+        <v>1</v>
+      </c>
+      <c r="S28" s="11"/>
+    </row>
+    <row r="29" spans="1:20" ht="56.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>79</v>
       </c>
@@ -2353,27 +2441,30 @@
       <c r="K29" s="6">
         <v>2</v>
       </c>
-      <c r="L29" s="7">
+      <c r="L29" s="6">
         <v>1</v>
       </c>
       <c r="M29" s="7">
+        <v>1</v>
+      </c>
+      <c r="N29" s="7">
         <v>6</v>
       </c>
-      <c r="N29" s="9">
+      <c r="O29" s="9">
         <v>10</v>
       </c>
-      <c r="O29" s="20">
-        <v>0</v>
-      </c>
-      <c r="P29" s="7">
-        <v>1</v>
+      <c r="P29" s="14">
+        <v>0</v>
       </c>
       <c r="Q29" s="7">
-        <v>3</v>
-      </c>
-      <c r="R29" s="17"/>
-    </row>
-    <row r="30" spans="1:19" ht="56.45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="R29" s="7">
+        <v>3</v>
+      </c>
+      <c r="S29" s="11"/>
+    </row>
+    <row r="30" spans="1:20" ht="56.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>80</v>
       </c>
@@ -2407,27 +2498,30 @@
       <c r="K30" s="6">
         <v>3</v>
       </c>
-      <c r="L30" s="7">
-        <v>1</v>
+      <c r="L30" s="6">
+        <v>0</v>
       </c>
       <c r="M30" s="7">
+        <v>1</v>
+      </c>
+      <c r="N30" s="7">
         <v>6</v>
       </c>
-      <c r="N30" s="9">
+      <c r="O30" s="9">
         <v>14</v>
       </c>
-      <c r="O30" s="20">
-        <v>0</v>
-      </c>
-      <c r="P30" s="7">
-        <v>2</v>
+      <c r="P30" s="14">
+        <v>0</v>
       </c>
       <c r="Q30" s="7">
-        <v>1</v>
-      </c>
-      <c r="R30" s="17"/>
-    </row>
-    <row r="31" spans="1:19" ht="56.45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="R30" s="7">
+        <v>1</v>
+      </c>
+      <c r="S30" s="11"/>
+    </row>
+    <row r="31" spans="1:20" ht="56.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>81</v>
       </c>
@@ -2461,27 +2555,30 @@
       <c r="K31" s="6">
         <v>0</v>
       </c>
-      <c r="L31" s="7">
-        <v>3</v>
+      <c r="L31" s="6">
+        <v>0</v>
       </c>
       <c r="M31" s="7">
+        <v>3</v>
+      </c>
+      <c r="N31" s="7">
         <v>7</v>
       </c>
-      <c r="N31" s="9">
+      <c r="O31" s="9">
         <v>16</v>
       </c>
-      <c r="O31" s="20">
-        <v>0</v>
-      </c>
-      <c r="P31" s="7">
-        <v>3</v>
+      <c r="P31" s="14">
+        <v>0</v>
       </c>
       <c r="Q31" s="7">
         <v>3</v>
       </c>
-      <c r="R31" s="17"/>
-    </row>
-    <row r="32" spans="1:19" ht="55.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R31" s="7">
+        <v>3</v>
+      </c>
+      <c r="S31" s="11"/>
+    </row>
+    <row r="32" spans="1:20" ht="55.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>10</v>
       </c>
@@ -2516,25 +2613,28 @@
         <v>0</v>
       </c>
       <c r="L32" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M32" s="9">
+        <v>1</v>
+      </c>
+      <c r="N32" s="9">
         <v>7</v>
       </c>
-      <c r="N32" s="9">
+      <c r="O32" s="9">
         <v>18</v>
       </c>
-      <c r="O32" s="9">
-        <v>0</v>
-      </c>
       <c r="P32" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q32" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" ht="55.35" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="R32" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" ht="55.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>11</v>
       </c>
@@ -2569,25 +2669,28 @@
         <v>2</v>
       </c>
       <c r="L33" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M33" s="9">
+        <v>1</v>
+      </c>
+      <c r="N33" s="9">
         <v>9</v>
       </c>
-      <c r="N33" s="9">
+      <c r="O33" s="9">
         <v>28</v>
       </c>
-      <c r="O33" s="9">
-        <v>0</v>
-      </c>
       <c r="P33" s="9">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q33" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" ht="55.35" customHeight="1" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="R33" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" ht="55.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>12</v>
       </c>
@@ -2622,25 +2725,28 @@
         <v>1</v>
       </c>
       <c r="L34" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M34" s="9">
+        <v>2</v>
+      </c>
+      <c r="N34" s="9">
         <v>6</v>
       </c>
-      <c r="N34" s="9">
+      <c r="O34" s="9">
         <v>13</v>
       </c>
-      <c r="O34" s="9">
-        <v>0</v>
-      </c>
       <c r="P34" s="9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q34" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" ht="55.35" customHeight="1" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="R34" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" ht="55.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>13</v>
       </c>
@@ -2675,25 +2781,28 @@
         <v>0</v>
       </c>
       <c r="L35" s="9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M35" s="9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N35" s="9">
+        <v>2</v>
+      </c>
+      <c r="O35" s="9">
         <v>15</v>
       </c>
-      <c r="O35" s="9">
-        <v>0</v>
-      </c>
       <c r="P35" s="9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q35" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" ht="55.35" customHeight="1" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="R35" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" ht="55.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>14</v>
       </c>
@@ -2731,22 +2840,25 @@
         <v>0</v>
       </c>
       <c r="M36" s="9">
+        <v>0</v>
+      </c>
+      <c r="N36" s="9">
         <v>10</v>
       </c>
-      <c r="N36" s="9">
+      <c r="O36" s="9">
         <v>22</v>
       </c>
-      <c r="O36" s="9">
-        <v>0</v>
-      </c>
       <c r="P36" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q36" s="9">
         <v>2</v>
       </c>
-    </row>
-    <row r="37" spans="1:17" ht="55.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R36" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" ht="55.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>15</v>
       </c>
@@ -2781,25 +2893,28 @@
         <v>0</v>
       </c>
       <c r="L37" s="9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M37" s="9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N37" s="9">
+        <v>5</v>
+      </c>
+      <c r="O37" s="9">
         <v>15</v>
       </c>
-      <c r="O37" s="9">
-        <v>1</v>
-      </c>
       <c r="P37" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q37" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" ht="55.35" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="R37" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" ht="55.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>16</v>
       </c>
@@ -2834,25 +2949,28 @@
         <v>0</v>
       </c>
       <c r="L38" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M38" s="9">
+        <v>1</v>
+      </c>
+      <c r="N38" s="9">
         <v>9</v>
       </c>
-      <c r="N38" s="9">
+      <c r="O38" s="9">
         <v>15</v>
       </c>
-      <c r="O38" s="9">
-        <v>0</v>
-      </c>
       <c r="P38" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q38" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" ht="55.35" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="R38" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" ht="55.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>17</v>
       </c>
@@ -2887,25 +3005,28 @@
         <v>1</v>
       </c>
       <c r="L39" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M39" s="9">
+        <v>2</v>
+      </c>
+      <c r="N39" s="9">
         <v>8</v>
       </c>
-      <c r="N39" s="9">
+      <c r="O39" s="9">
         <v>14</v>
       </c>
-      <c r="O39" s="9">
-        <v>0</v>
-      </c>
       <c r="P39" s="9">
         <v>0</v>
       </c>
       <c r="Q39" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:17" ht="55.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R39" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" ht="55.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>18</v>
       </c>
@@ -2940,25 +3061,28 @@
         <v>1</v>
       </c>
       <c r="L40" s="9">
+        <v>0</v>
+      </c>
+      <c r="M40" s="9">
         <v>7</v>
       </c>
-      <c r="M40" s="9">
-        <v>4</v>
-      </c>
       <c r="N40" s="9">
+        <v>4</v>
+      </c>
+      <c r="O40" s="9">
         <v>31</v>
       </c>
-      <c r="O40" s="9">
-        <v>0</v>
-      </c>
       <c r="P40" s="9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q40" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17" ht="55.35" customHeight="1" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="R40" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" ht="55.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>19</v>
       </c>
@@ -2993,25 +3117,28 @@
         <v>1</v>
       </c>
       <c r="L41" s="9">
+        <v>0</v>
+      </c>
+      <c r="M41" s="9">
         <v>9</v>
       </c>
-      <c r="M41" s="9">
+      <c r="N41" s="9">
         <v>6</v>
       </c>
-      <c r="N41" s="9">
+      <c r="O41" s="9">
         <v>17</v>
       </c>
-      <c r="O41" s="9">
-        <v>0</v>
-      </c>
       <c r="P41" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q41" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17" ht="55.35" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="R41" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" ht="55.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>20</v>
       </c>
@@ -3046,25 +3173,28 @@
         <v>0</v>
       </c>
       <c r="L42" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M42" s="9">
+        <v>2</v>
+      </c>
+      <c r="N42" s="9">
         <v>7</v>
       </c>
-      <c r="N42" s="9">
+      <c r="O42" s="9">
         <v>30</v>
       </c>
-      <c r="O42" s="9">
-        <v>1</v>
-      </c>
       <c r="P42" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q42" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17" ht="55.35" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="R42" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" ht="55.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>21</v>
       </c>
@@ -3099,25 +3229,28 @@
         <v>1</v>
       </c>
       <c r="L43" s="9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M43" s="9">
         <v>4</v>
       </c>
       <c r="N43" s="9">
+        <v>4</v>
+      </c>
+      <c r="O43" s="9">
         <v>25</v>
       </c>
-      <c r="O43" s="9">
-        <v>2</v>
-      </c>
       <c r="P43" s="9">
         <v>2</v>
       </c>
       <c r="Q43" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17" ht="55.35" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="R43" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" ht="55.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>22</v>
       </c>
@@ -3155,22 +3288,25 @@
         <v>0</v>
       </c>
       <c r="M44" s="9">
+        <v>0</v>
+      </c>
+      <c r="N44" s="9">
         <v>6</v>
       </c>
-      <c r="N44" s="9">
+      <c r="O44" s="9">
         <v>28</v>
       </c>
-      <c r="O44" s="9">
-        <v>0</v>
-      </c>
       <c r="P44" s="9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q44" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17" ht="55.35" customHeight="1" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="R44" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" ht="55.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>23</v>
       </c>
@@ -3205,25 +3341,28 @@
         <v>0</v>
       </c>
       <c r="L45" s="9">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M45" s="9">
+        <v>5</v>
+      </c>
+      <c r="N45" s="9">
         <v>7</v>
       </c>
-      <c r="N45" s="9">
+      <c r="O45" s="9">
         <v>20</v>
       </c>
-      <c r="O45" s="9">
-        <v>1</v>
-      </c>
       <c r="P45" s="9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q45" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" ht="55.35" customHeight="1" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="R45" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" ht="55.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>24</v>
       </c>
@@ -3258,25 +3397,28 @@
         <v>1</v>
       </c>
       <c r="L46" s="9">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M46" s="9">
+        <v>4</v>
+      </c>
+      <c r="N46" s="9">
         <v>7</v>
       </c>
-      <c r="N46" s="9">
+      <c r="O46" s="9">
         <v>25</v>
       </c>
-      <c r="O46" s="9">
-        <v>1</v>
-      </c>
       <c r="P46" s="9">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q46" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17" ht="55.35" customHeight="1" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="R46" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" ht="55.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>25</v>
       </c>
@@ -3311,25 +3453,28 @@
         <v>2</v>
       </c>
       <c r="L47" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M47" s="9">
+        <v>2</v>
+      </c>
+      <c r="N47" s="9">
         <v>10</v>
       </c>
-      <c r="N47" s="9">
+      <c r="O47" s="9">
         <v>37</v>
       </c>
-      <c r="O47" s="9">
-        <v>1</v>
-      </c>
       <c r="P47" s="9">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q47" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17" ht="55.35" customHeight="1" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="R47" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" ht="55.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>26</v>
       </c>
@@ -3364,25 +3509,28 @@
         <v>0</v>
       </c>
       <c r="L48" s="9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M48" s="9">
         <v>3</v>
       </c>
       <c r="N48" s="9">
+        <v>3</v>
+      </c>
+      <c r="O48" s="9">
         <v>35</v>
       </c>
-      <c r="O48" s="9">
-        <v>3</v>
-      </c>
       <c r="P48" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q48" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:17" ht="55.35" customHeight="1" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="R48" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" ht="55.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>27</v>
       </c>
@@ -3417,25 +3565,28 @@
         <v>2</v>
       </c>
       <c r="L49" s="9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M49" s="9">
+        <v>4</v>
+      </c>
+      <c r="N49" s="9">
         <v>10</v>
       </c>
-      <c r="N49" s="9">
+      <c r="O49" s="9">
         <v>42</v>
       </c>
-      <c r="O49" s="9">
-        <v>0</v>
-      </c>
       <c r="P49" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q49" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:17" ht="55.35" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="R49" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" ht="55.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>28</v>
       </c>
@@ -3470,25 +3621,28 @@
         <v>1</v>
       </c>
       <c r="L50" s="9">
+        <v>0</v>
+      </c>
+      <c r="M50" s="9">
         <v>7</v>
       </c>
-      <c r="M50" s="9">
+      <c r="N50" s="9">
         <v>10</v>
       </c>
-      <c r="N50" s="9">
+      <c r="O50" s="9">
         <v>35</v>
       </c>
-      <c r="O50" s="9">
-        <v>0</v>
-      </c>
       <c r="P50" s="9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q50" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="51" spans="1:17" ht="55.35" customHeight="1" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="R50" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" ht="55.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>29</v>
       </c>
@@ -3523,25 +3677,28 @@
         <v>2</v>
       </c>
       <c r="L51" s="9">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M51" s="9">
         <v>5</v>
       </c>
       <c r="N51" s="9">
+        <v>5</v>
+      </c>
+      <c r="O51" s="9">
         <v>50</v>
       </c>
-      <c r="O51" s="9">
-        <v>1</v>
-      </c>
       <c r="P51" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q51" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:17" ht="55.35" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="R51" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" ht="55.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>30</v>
       </c>
@@ -3576,25 +3733,28 @@
         <v>2</v>
       </c>
       <c r="L52" s="9">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M52" s="9">
+        <v>4</v>
+      </c>
+      <c r="N52" s="9">
         <v>6</v>
       </c>
-      <c r="N52" s="9">
+      <c r="O52" s="9">
         <v>43</v>
       </c>
-      <c r="O52" s="9">
-        <v>2</v>
-      </c>
       <c r="P52" s="9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q52" s="9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="1:17" ht="55.35" customHeight="1" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="R52" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" ht="55.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>31</v>
       </c>
@@ -3629,25 +3789,28 @@
         <v>2</v>
       </c>
       <c r="L53" s="9">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M53" s="9">
         <v>4</v>
       </c>
       <c r="N53" s="9">
+        <v>4</v>
+      </c>
+      <c r="O53" s="9">
         <v>42</v>
       </c>
-      <c r="O53" s="9">
-        <v>1</v>
-      </c>
       <c r="P53" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q53" s="9">
         <v>2</v>
       </c>
-    </row>
-    <row r="54" spans="1:17" ht="55.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R53" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" ht="55.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>32</v>
       </c>
@@ -3682,25 +3845,28 @@
         <v>1</v>
       </c>
       <c r="L54" s="9">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M54" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N54" s="9">
+        <v>3</v>
+      </c>
+      <c r="O54" s="9">
         <v>37</v>
       </c>
-      <c r="O54" s="9">
-        <v>2</v>
-      </c>
       <c r="P54" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q54" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:17" ht="55.35" customHeight="1" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="R54" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" ht="55.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>33</v>
       </c>
@@ -3735,25 +3901,28 @@
         <v>2</v>
       </c>
       <c r="L55" s="9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M55" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N55" s="9">
+        <v>2</v>
+      </c>
+      <c r="O55" s="9">
         <v>24</v>
       </c>
-      <c r="O55" s="9">
-        <v>1</v>
-      </c>
       <c r="P55" s="9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q55" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:17" ht="55.35" customHeight="1" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="R55" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" ht="55.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>34</v>
       </c>
@@ -3788,25 +3957,28 @@
         <v>1</v>
       </c>
       <c r="L56" s="9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M56" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N56" s="9">
+        <v>4</v>
+      </c>
+      <c r="O56" s="9">
         <v>24</v>
       </c>
-      <c r="O56" s="9">
-        <v>2</v>
-      </c>
       <c r="P56" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q56" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:17" ht="55.35" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="R56" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" ht="55.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>35</v>
       </c>
@@ -3841,25 +4013,28 @@
         <v>2</v>
       </c>
       <c r="L57" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M57" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N57" s="9">
+        <v>0</v>
+      </c>
+      <c r="O57" s="9">
         <v>24</v>
       </c>
-      <c r="O57" s="9">
-        <v>2</v>
-      </c>
       <c r="P57" s="9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q57" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:17" ht="55.35" customHeight="1" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="R57" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" ht="55.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>36</v>
       </c>
@@ -3894,25 +4069,28 @@
         <v>1</v>
       </c>
       <c r="L58" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M58" s="9">
         <v>2</v>
       </c>
       <c r="N58" s="9">
+        <v>2</v>
+      </c>
+      <c r="O58" s="9">
         <v>30</v>
       </c>
-      <c r="O58" s="9">
-        <v>1</v>
-      </c>
       <c r="P58" s="9">
         <v>1</v>
       </c>
       <c r="Q58" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:17" ht="55.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R58" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" ht="55.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>37</v>
       </c>
@@ -3947,25 +4125,28 @@
         <v>1</v>
       </c>
       <c r="L59" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M59" s="9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N59" s="9">
+        <v>4</v>
+      </c>
+      <c r="O59" s="9">
         <v>25</v>
       </c>
-      <c r="O59" s="9">
-        <v>1</v>
-      </c>
       <c r="P59" s="9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q59" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:17" ht="55.35" customHeight="1" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="R59" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" ht="55.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>38</v>
       </c>
@@ -4000,25 +4181,28 @@
         <v>0</v>
       </c>
       <c r="L60" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M60" s="9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N60" s="9">
+        <v>4</v>
+      </c>
+      <c r="O60" s="9">
         <v>29</v>
       </c>
-      <c r="O60" s="9">
-        <v>0</v>
-      </c>
       <c r="P60" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q60" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:17" ht="55.35" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="R60" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" ht="55.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>39</v>
       </c>
@@ -4053,25 +4237,28 @@
         <v>0</v>
       </c>
       <c r="L61" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M61" s="9">
         <v>2</v>
       </c>
       <c r="N61" s="9">
+        <v>2</v>
+      </c>
+      <c r="O61" s="9">
         <v>22</v>
       </c>
-      <c r="O61" s="9">
-        <v>0</v>
-      </c>
       <c r="P61" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q61" s="9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="62" spans="1:17" ht="55.35" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="R61" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" ht="55.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>40</v>
       </c>
@@ -4106,25 +4293,28 @@
         <v>0</v>
       </c>
       <c r="L62" s="9">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M62" s="9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N62" s="9">
+        <v>2</v>
+      </c>
+      <c r="O62" s="9">
         <v>19</v>
       </c>
-      <c r="O62" s="9">
-        <v>2</v>
-      </c>
       <c r="P62" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q62" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="63" spans="1:17" ht="55.35" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="R62" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" ht="55.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>41</v>
       </c>
@@ -4159,25 +4349,28 @@
         <v>0</v>
       </c>
       <c r="L63" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M63" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N63" s="9">
+        <v>3</v>
+      </c>
+      <c r="O63" s="9">
         <v>14</v>
       </c>
-      <c r="O63" s="9">
-        <v>1</v>
-      </c>
       <c r="P63" s="9">
         <v>1</v>
       </c>
       <c r="Q63" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:17" ht="55.35" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="R63" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" ht="55.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>42</v>
       </c>
@@ -4212,25 +4405,28 @@
         <v>0</v>
       </c>
       <c r="L64" s="9">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M64" s="9">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N64" s="9">
+        <v>0</v>
+      </c>
+      <c r="O64" s="9">
         <v>12</v>
       </c>
-      <c r="O64" s="9">
-        <v>0</v>
-      </c>
       <c r="P64" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q64" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:17" ht="55.35" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="R64" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" ht="55.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>43</v>
       </c>
@@ -4265,25 +4461,28 @@
         <v>0</v>
       </c>
       <c r="L65" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M65" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N65" s="9">
+        <v>3</v>
+      </c>
+      <c r="O65" s="9">
         <v>15</v>
       </c>
-      <c r="O65" s="9">
-        <v>0</v>
-      </c>
       <c r="P65" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q65" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:17" ht="55.35" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="R65" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" ht="55.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>44</v>
       </c>
@@ -4318,36 +4517,39 @@
         <v>0</v>
       </c>
       <c r="L66" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M66" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N66" s="9">
+        <v>2</v>
+      </c>
+      <c r="O66" s="9">
         <v>11</v>
       </c>
-      <c r="O66" s="9">
-        <v>1</v>
-      </c>
       <c r="P66" s="9">
         <v>1</v>
       </c>
       <c r="Q66" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D67" s="19"/>
-      <c r="F67" s="19"/>
-      <c r="O67" s="19"/>
+        <v>1</v>
+      </c>
+      <c r="R66" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D67" s="13"/>
+      <c r="F67" s="13"/>
+      <c r="P67" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="M1:P1"/>
     <mergeCell ref="C1:E1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/data/test.xlsx
+++ b/data/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cesar\Desktop\analisis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCDAA28A-55BE-4ACF-9A74-3CC58A9D0CA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBBF86F1-C12F-4945-8D01-E4F64ADBAC38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0C7E93F8-8D3B-435A-AAF7-FED793D86AF9}"/>
   </bookViews>
@@ -384,7 +384,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -444,12 +444,49 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -504,11 +541,17 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -827,8 +870,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C4E2274-8686-4763-A3E6-C18FBE049BB9}">
   <dimension ref="A1:T67"/>
   <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" topLeftCell="A12" zoomScale="70" zoomScaleNormal="55" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" topLeftCell="A28" zoomScale="70" zoomScaleNormal="55" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -845,11 +888,11 @@
       <c r="B1" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
+      <c r="C1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
       <c r="F1" s="15" t="s">
         <v>4</v>
       </c>
@@ -860,11 +903,11 @@
       </c>
       <c r="J1" s="16"/>
       <c r="K1" s="16"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="10"/>
       <c r="Q1" s="19" t="s">
         <v>52</v>
       </c>
@@ -902,20 +945,20 @@
       <c r="K2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="P2" s="6" t="s">
         <v>84</v>
-      </c>
-      <c r="M2" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="N2" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="O2" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="P2" s="8" t="s">
-        <v>47</v>
       </c>
       <c r="Q2" s="7" t="s">
         <v>48</v>
@@ -958,20 +1001,20 @@
       <c r="K3" s="6">
         <v>0</v>
       </c>
-      <c r="L3" s="6">
-        <v>0</v>
+      <c r="L3" s="7">
+        <v>5</v>
       </c>
       <c r="M3" s="7">
         <v>5</v>
       </c>
-      <c r="N3" s="7">
+      <c r="N3" s="8">
         <v>5</v>
       </c>
       <c r="O3" s="8">
         <v>5</v>
       </c>
-      <c r="P3" s="8">
-        <v>5</v>
+      <c r="P3" s="6">
+        <v>0</v>
       </c>
       <c r="Q3" s="7">
         <v>10</v>
@@ -1015,20 +1058,20 @@
       <c r="K4" s="6">
         <v>1</v>
       </c>
-      <c r="L4" s="6">
+      <c r="L4" s="7">
         <v>0</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7">
         <v>9</v>
       </c>
+      <c r="N4" s="8">
+        <v>8</v>
+      </c>
       <c r="O4" s="8">
-        <v>8</v>
-      </c>
-      <c r="P4" s="8">
-        <v>3</v>
+        <v>3</v>
+      </c>
+      <c r="P4" s="6">
+        <v>0</v>
       </c>
       <c r="Q4" s="7">
         <v>5</v>
@@ -1072,20 +1115,20 @@
       <c r="K5" s="6">
         <v>1</v>
       </c>
-      <c r="L5" s="6">
-        <v>0</v>
+      <c r="L5" s="7">
+        <v>2</v>
       </c>
       <c r="M5" s="7">
-        <v>2</v>
-      </c>
-      <c r="N5" s="7">
         <v>8</v>
       </c>
+      <c r="N5" s="8">
+        <v>9</v>
+      </c>
       <c r="O5" s="8">
-        <v>9</v>
-      </c>
-      <c r="P5" s="8">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="P5" s="6">
+        <v>0</v>
       </c>
       <c r="Q5" s="7">
         <v>5</v>
@@ -1129,20 +1172,20 @@
       <c r="K6" s="6">
         <v>0</v>
       </c>
-      <c r="L6" s="6">
-        <v>0</v>
+      <c r="L6" s="7">
+        <v>1</v>
       </c>
       <c r="M6" s="7">
-        <v>1</v>
-      </c>
-      <c r="N6" s="7">
         <v>7</v>
       </c>
+      <c r="N6" s="8">
+        <v>7</v>
+      </c>
       <c r="O6" s="8">
-        <v>7</v>
-      </c>
-      <c r="P6" s="8">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="P6" s="6">
+        <v>0</v>
       </c>
       <c r="Q6" s="7">
         <v>6</v>
@@ -1186,19 +1229,19 @@
       <c r="K7" s="6">
         <v>3</v>
       </c>
-      <c r="L7" s="6">
-        <v>0</v>
+      <c r="L7" s="7">
+        <v>4</v>
       </c>
       <c r="M7" s="7">
-        <v>4</v>
-      </c>
-      <c r="N7" s="7">
         <v>10</v>
       </c>
+      <c r="N7" s="8">
+        <v>5</v>
+      </c>
       <c r="O7" s="8">
-        <v>5</v>
-      </c>
-      <c r="P7" s="8">
+        <v>0</v>
+      </c>
+      <c r="P7" s="6">
         <v>0</v>
       </c>
       <c r="Q7" s="7">
@@ -1243,19 +1286,19 @@
       <c r="K8" s="6">
         <v>4</v>
       </c>
-      <c r="L8" s="6">
-        <v>0</v>
+      <c r="L8" s="7">
+        <v>3</v>
       </c>
       <c r="M8" s="7">
-        <v>3</v>
-      </c>
-      <c r="N8" s="7">
         <v>10</v>
       </c>
+      <c r="N8" s="8">
+        <v>9</v>
+      </c>
       <c r="O8" s="8">
-        <v>9</v>
-      </c>
-      <c r="P8" s="8">
+        <v>0</v>
+      </c>
+      <c r="P8" s="6">
         <v>0</v>
       </c>
       <c r="Q8" s="7">
@@ -1300,19 +1343,19 @@
       <c r="K9" s="6">
         <v>1</v>
       </c>
-      <c r="L9" s="6">
+      <c r="L9" s="7">
         <v>0</v>
       </c>
       <c r="M9" s="7">
-        <v>0</v>
-      </c>
-      <c r="N9" s="7">
         <v>9</v>
       </c>
+      <c r="N9" s="8">
+        <v>8</v>
+      </c>
       <c r="O9" s="8">
-        <v>8</v>
-      </c>
-      <c r="P9" s="8">
+        <v>0</v>
+      </c>
+      <c r="P9" s="6">
         <v>0</v>
       </c>
       <c r="Q9" s="7">
@@ -1357,19 +1400,19 @@
       <c r="K10" s="6">
         <v>2</v>
       </c>
-      <c r="L10" s="6">
-        <v>0</v>
+      <c r="L10" s="7">
+        <v>3</v>
       </c>
       <c r="M10" s="7">
-        <v>3</v>
-      </c>
-      <c r="N10" s="7">
         <v>10</v>
       </c>
+      <c r="N10" s="8">
+        <v>18</v>
+      </c>
       <c r="O10" s="8">
-        <v>18</v>
-      </c>
-      <c r="P10" s="8">
+        <v>0</v>
+      </c>
+      <c r="P10" s="6">
         <v>0</v>
       </c>
       <c r="Q10" s="7">
@@ -1414,19 +1457,19 @@
       <c r="K11" s="6">
         <v>2</v>
       </c>
-      <c r="L11" s="6">
-        <v>0</v>
+      <c r="L11" s="7">
+        <v>3</v>
       </c>
       <c r="M11" s="7">
-        <v>3</v>
-      </c>
-      <c r="N11" s="7">
         <v>7</v>
       </c>
+      <c r="N11" s="8">
+        <v>9</v>
+      </c>
       <c r="O11" s="8">
-        <v>9</v>
-      </c>
-      <c r="P11" s="8">
+        <v>0</v>
+      </c>
+      <c r="P11" s="6">
         <v>0</v>
       </c>
       <c r="Q11" s="7">
@@ -1471,19 +1514,19 @@
       <c r="K12" s="6">
         <v>3</v>
       </c>
-      <c r="L12" s="6">
-        <v>0</v>
+      <c r="L12" s="7">
+        <v>3</v>
       </c>
       <c r="M12" s="7">
-        <v>3</v>
-      </c>
-      <c r="N12" s="7">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="N12" s="8">
+        <v>14</v>
       </c>
       <c r="O12" s="8">
-        <v>14</v>
-      </c>
-      <c r="P12" s="8">
+        <v>0</v>
+      </c>
+      <c r="P12" s="6">
         <v>0</v>
       </c>
       <c r="Q12" s="7">
@@ -1528,19 +1571,19 @@
       <c r="K13" s="6">
         <v>2</v>
       </c>
-      <c r="L13" s="6">
-        <v>0</v>
+      <c r="L13" s="7">
+        <v>3</v>
       </c>
       <c r="M13" s="7">
-        <v>3</v>
-      </c>
-      <c r="N13" s="7">
         <v>8</v>
       </c>
-      <c r="O13" s="9">
+      <c r="N13" s="9">
         <v>13</v>
       </c>
-      <c r="P13" s="8">
+      <c r="O13" s="8">
+        <v>0</v>
+      </c>
+      <c r="P13" s="6">
         <v>0</v>
       </c>
       <c r="Q13" s="7">
@@ -1585,20 +1628,20 @@
       <c r="K14" s="6">
         <v>2</v>
       </c>
-      <c r="L14" s="6">
-        <v>0</v>
+      <c r="L14" s="7">
+        <v>3</v>
       </c>
       <c r="M14" s="7">
-        <v>3</v>
-      </c>
-      <c r="N14" s="7">
         <v>8</v>
       </c>
-      <c r="O14" s="9">
+      <c r="N14" s="9">
         <v>13</v>
       </c>
-      <c r="P14" s="8">
-        <v>1</v>
+      <c r="O14" s="8">
+        <v>1</v>
+      </c>
+      <c r="P14" s="6">
+        <v>0</v>
       </c>
       <c r="Q14" s="7">
         <v>1</v>
@@ -1642,20 +1685,20 @@
       <c r="K15" s="6">
         <v>1</v>
       </c>
-      <c r="L15" s="6">
-        <v>0</v>
+      <c r="L15" s="7">
+        <v>1</v>
       </c>
       <c r="M15" s="7">
-        <v>1</v>
-      </c>
-      <c r="N15" s="7">
         <v>6</v>
       </c>
-      <c r="O15" s="9">
+      <c r="N15" s="9">
         <v>10</v>
       </c>
-      <c r="P15" s="8">
-        <v>1</v>
+      <c r="O15" s="8">
+        <v>1</v>
+      </c>
+      <c r="P15" s="6">
+        <v>0</v>
       </c>
       <c r="Q15" s="7">
         <v>4</v>
@@ -1699,19 +1742,19 @@
       <c r="K16" s="6">
         <v>0</v>
       </c>
-      <c r="L16" s="6">
-        <v>0</v>
+      <c r="L16" s="7">
+        <v>2</v>
       </c>
       <c r="M16" s="7">
-        <v>2</v>
-      </c>
-      <c r="N16" s="7">
         <v>9</v>
       </c>
-      <c r="O16" s="9">
+      <c r="N16" s="9">
         <v>26</v>
       </c>
-      <c r="P16" s="8">
+      <c r="O16" s="8">
+        <v>0</v>
+      </c>
+      <c r="P16" s="6">
         <v>0</v>
       </c>
       <c r="Q16" s="7">
@@ -1756,20 +1799,20 @@
       <c r="K17" s="6">
         <v>2</v>
       </c>
-      <c r="L17" s="6">
-        <v>0</v>
+      <c r="L17" s="7">
+        <v>1</v>
       </c>
       <c r="M17" s="7">
-        <v>1</v>
-      </c>
-      <c r="N17" s="7">
-        <v>4</v>
-      </c>
-      <c r="O17" s="9">
+        <v>4</v>
+      </c>
+      <c r="N17" s="9">
         <v>15</v>
       </c>
-      <c r="P17" s="8">
-        <v>1</v>
+      <c r="O17" s="8">
+        <v>1</v>
+      </c>
+      <c r="P17" s="6">
+        <v>0</v>
       </c>
       <c r="Q17" s="7">
         <v>4</v>
@@ -1813,19 +1856,19 @@
       <c r="K18" s="6">
         <v>1</v>
       </c>
-      <c r="L18" s="6">
-        <v>0</v>
+      <c r="L18" s="7">
+        <v>2</v>
       </c>
       <c r="M18" s="7">
-        <v>2</v>
-      </c>
-      <c r="N18" s="7">
         <v>11</v>
       </c>
-      <c r="O18" s="9">
+      <c r="N18" s="9">
         <v>21</v>
       </c>
-      <c r="P18" s="8">
+      <c r="O18" s="8">
+        <v>0</v>
+      </c>
+      <c r="P18" s="6">
         <v>0</v>
       </c>
       <c r="Q18" s="7">
@@ -1870,19 +1913,19 @@
       <c r="K19" s="6">
         <v>2</v>
       </c>
-      <c r="L19" s="6">
-        <v>0</v>
+      <c r="L19" s="7">
+        <v>1</v>
       </c>
       <c r="M19" s="7">
-        <v>1</v>
-      </c>
-      <c r="N19" s="7">
         <v>8</v>
       </c>
-      <c r="O19" s="9">
+      <c r="N19" s="9">
         <v>17</v>
       </c>
-      <c r="P19" s="8">
+      <c r="O19" s="8">
+        <v>0</v>
+      </c>
+      <c r="P19" s="6">
         <v>0</v>
       </c>
       <c r="Q19" s="7">
@@ -1927,20 +1970,20 @@
       <c r="K20" s="6">
         <v>0</v>
       </c>
-      <c r="L20" s="6">
-        <v>0</v>
+      <c r="L20" s="7">
+        <v>4</v>
       </c>
       <c r="M20" s="7">
-        <v>4</v>
-      </c>
-      <c r="N20" s="7">
-        <v>5</v>
-      </c>
-      <c r="O20" s="9">
+        <v>5</v>
+      </c>
+      <c r="N20" s="9">
         <v>17</v>
       </c>
-      <c r="P20" s="8">
-        <v>2</v>
+      <c r="O20" s="8">
+        <v>2</v>
+      </c>
+      <c r="P20" s="6">
+        <v>0</v>
       </c>
       <c r="Q20" s="7">
         <v>1</v>
@@ -1984,20 +2027,20 @@
       <c r="K21" s="6">
         <v>2</v>
       </c>
-      <c r="L21" s="6">
-        <v>0</v>
+      <c r="L21" s="7">
+        <v>2</v>
       </c>
       <c r="M21" s="7">
-        <v>2</v>
-      </c>
-      <c r="N21" s="7">
         <v>6</v>
       </c>
-      <c r="O21" s="9">
+      <c r="N21" s="9">
         <v>21</v>
       </c>
-      <c r="P21" s="8">
-        <v>1</v>
+      <c r="O21" s="8">
+        <v>1</v>
+      </c>
+      <c r="P21" s="6">
+        <v>0</v>
       </c>
       <c r="Q21" s="7">
         <v>5</v>
@@ -2041,19 +2084,19 @@
       <c r="K22" s="6">
         <v>0</v>
       </c>
-      <c r="L22" s="6">
-        <v>0</v>
+      <c r="L22" s="7">
+        <v>3</v>
       </c>
       <c r="M22" s="7">
-        <v>3</v>
-      </c>
-      <c r="N22" s="7">
         <v>7</v>
       </c>
-      <c r="O22" s="9">
+      <c r="N22" s="9">
         <v>10</v>
       </c>
-      <c r="P22" s="14">
+      <c r="O22" s="14">
+        <v>0</v>
+      </c>
+      <c r="P22" s="6">
         <v>0</v>
       </c>
       <c r="Q22" s="7">
@@ -2099,19 +2142,19 @@
       <c r="K23" s="6">
         <v>1</v>
       </c>
-      <c r="L23" s="6">
-        <v>0</v>
+      <c r="L23" s="7">
+        <v>6</v>
       </c>
       <c r="M23" s="7">
-        <v>6</v>
-      </c>
-      <c r="N23" s="7">
         <v>10</v>
       </c>
-      <c r="O23" s="9">
+      <c r="N23" s="9">
         <v>25</v>
       </c>
-      <c r="P23" s="14">
+      <c r="O23" s="14">
+        <v>0</v>
+      </c>
+      <c r="P23" s="6">
         <v>0</v>
       </c>
       <c r="Q23" s="7">
@@ -2156,20 +2199,20 @@
       <c r="K24" s="6">
         <v>0</v>
       </c>
-      <c r="L24" s="6">
+      <c r="L24" s="7">
         <v>1</v>
       </c>
       <c r="M24" s="7">
-        <v>1</v>
-      </c>
-      <c r="N24" s="7">
-        <v>5</v>
-      </c>
-      <c r="O24" s="9">
+        <v>5</v>
+      </c>
+      <c r="N24" s="9">
         <v>17</v>
       </c>
-      <c r="P24" s="14">
-        <v>0</v>
+      <c r="O24" s="14">
+        <v>0</v>
+      </c>
+      <c r="P24" s="6">
+        <v>1</v>
       </c>
       <c r="Q24" s="7">
         <v>5</v>
@@ -2213,20 +2256,20 @@
       <c r="K25" s="6">
         <v>4</v>
       </c>
-      <c r="L25" s="6">
-        <v>1</v>
+      <c r="L25" s="7">
+        <v>4</v>
       </c>
       <c r="M25" s="7">
-        <v>4</v>
-      </c>
-      <c r="N25" s="7">
         <v>8</v>
       </c>
-      <c r="O25" s="9">
+      <c r="N25" s="9">
         <v>14</v>
       </c>
-      <c r="P25" s="14">
-        <v>0</v>
+      <c r="O25" s="14">
+        <v>0</v>
+      </c>
+      <c r="P25" s="6">
+        <v>1</v>
       </c>
       <c r="Q25" s="7">
         <v>4</v>
@@ -2270,19 +2313,19 @@
       <c r="K26" s="6">
         <v>2</v>
       </c>
-      <c r="L26" s="6">
+      <c r="L26" s="7">
         <v>0</v>
       </c>
       <c r="M26" s="7">
-        <v>0</v>
-      </c>
-      <c r="N26" s="7">
-        <v>5</v>
-      </c>
-      <c r="O26" s="9">
+        <v>5</v>
+      </c>
+      <c r="N26" s="9">
         <v>15</v>
       </c>
-      <c r="P26" s="14">
+      <c r="O26" s="14">
+        <v>0</v>
+      </c>
+      <c r="P26" s="6">
         <v>0</v>
       </c>
       <c r="Q26" s="7">
@@ -2327,20 +2370,20 @@
       <c r="K27" s="6">
         <v>2</v>
       </c>
-      <c r="L27" s="6">
-        <v>1</v>
+      <c r="L27" s="7">
+        <v>2</v>
       </c>
       <c r="M27" s="7">
-        <v>2</v>
-      </c>
-      <c r="N27" s="7">
         <v>8</v>
       </c>
-      <c r="O27" s="9">
+      <c r="N27" s="9">
         <v>26</v>
       </c>
-      <c r="P27" s="14">
-        <v>0</v>
+      <c r="O27" s="14">
+        <v>0</v>
+      </c>
+      <c r="P27" s="6">
+        <v>1</v>
       </c>
       <c r="Q27" s="7">
         <v>5</v>
@@ -2384,19 +2427,19 @@
       <c r="K28" s="6">
         <v>1</v>
       </c>
-      <c r="L28" s="6">
-        <v>0</v>
+      <c r="L28" s="7">
+        <v>3</v>
       </c>
       <c r="M28" s="7">
-        <v>3</v>
-      </c>
-      <c r="N28" s="7">
-        <v>4</v>
-      </c>
-      <c r="O28" s="9">
+        <v>4</v>
+      </c>
+      <c r="N28" s="9">
         <v>20</v>
       </c>
-      <c r="P28" s="14">
+      <c r="O28" s="14">
+        <v>0</v>
+      </c>
+      <c r="P28" s="6">
         <v>0</v>
       </c>
       <c r="Q28" s="7">
@@ -2441,20 +2484,20 @@
       <c r="K29" s="6">
         <v>2</v>
       </c>
-      <c r="L29" s="6">
+      <c r="L29" s="7">
         <v>1</v>
       </c>
       <c r="M29" s="7">
-        <v>1</v>
-      </c>
-      <c r="N29" s="7">
         <v>6</v>
       </c>
-      <c r="O29" s="9">
+      <c r="N29" s="9">
         <v>10</v>
       </c>
-      <c r="P29" s="14">
-        <v>0</v>
+      <c r="O29" s="14">
+        <v>0</v>
+      </c>
+      <c r="P29" s="6">
+        <v>1</v>
       </c>
       <c r="Q29" s="7">
         <v>1</v>
@@ -2498,19 +2541,19 @@
       <c r="K30" s="6">
         <v>3</v>
       </c>
-      <c r="L30" s="6">
-        <v>0</v>
+      <c r="L30" s="7">
+        <v>1</v>
       </c>
       <c r="M30" s="7">
-        <v>1</v>
-      </c>
-      <c r="N30" s="7">
         <v>6</v>
       </c>
-      <c r="O30" s="9">
+      <c r="N30" s="9">
         <v>14</v>
       </c>
-      <c r="P30" s="14">
+      <c r="O30" s="14">
+        <v>0</v>
+      </c>
+      <c r="P30" s="6">
         <v>0</v>
       </c>
       <c r="Q30" s="7">
@@ -2555,19 +2598,19 @@
       <c r="K31" s="6">
         <v>0</v>
       </c>
-      <c r="L31" s="6">
-        <v>0</v>
+      <c r="L31" s="7">
+        <v>3</v>
       </c>
       <c r="M31" s="7">
-        <v>3</v>
-      </c>
-      <c r="N31" s="7">
         <v>7</v>
       </c>
-      <c r="O31" s="9">
+      <c r="N31" s="9">
         <v>16</v>
       </c>
-      <c r="P31" s="14">
+      <c r="O31" s="14">
+        <v>0</v>
+      </c>
+      <c r="P31" s="6">
         <v>0</v>
       </c>
       <c r="Q31" s="7">
@@ -2613,16 +2656,16 @@
         <v>0</v>
       </c>
       <c r="L32" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M32" s="9">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="N32" s="9">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="O32" s="9">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="P32" s="9">
         <v>0</v>
@@ -2669,16 +2712,16 @@
         <v>2</v>
       </c>
       <c r="L33" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M33" s="9">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="N33" s="9">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="O33" s="9">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="P33" s="9">
         <v>0</v>
@@ -2725,16 +2768,16 @@
         <v>1</v>
       </c>
       <c r="L34" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M34" s="9">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="N34" s="9">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="O34" s="9">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="P34" s="9">
         <v>0</v>
@@ -2781,19 +2824,19 @@
         <v>0</v>
       </c>
       <c r="L35" s="9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M35" s="9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N35" s="9">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="O35" s="9">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="P35" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q35" s="9">
         <v>3</v>
@@ -2840,13 +2883,13 @@
         <v>0</v>
       </c>
       <c r="M36" s="9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N36" s="9">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="O36" s="9">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="P36" s="9">
         <v>0</v>
@@ -2893,19 +2936,19 @@
         <v>0</v>
       </c>
       <c r="L37" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M37" s="9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N37" s="9">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="O37" s="9">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="P37" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q37" s="9">
         <v>2</v>
@@ -2949,16 +2992,16 @@
         <v>0</v>
       </c>
       <c r="L38" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M38" s="9">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="N38" s="9">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="O38" s="9">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="P38" s="9">
         <v>0</v>
@@ -3005,16 +3048,16 @@
         <v>1</v>
       </c>
       <c r="L39" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M39" s="9">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="N39" s="9">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="O39" s="9">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="P39" s="9">
         <v>0</v>
@@ -3061,16 +3104,16 @@
         <v>1</v>
       </c>
       <c r="L40" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M40" s="9">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="N40" s="9">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="O40" s="9">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="P40" s="9">
         <v>0</v>
@@ -3117,16 +3160,16 @@
         <v>1</v>
       </c>
       <c r="L41" s="9">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="M41" s="9">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="N41" s="9">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="O41" s="9">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="P41" s="9">
         <v>0</v>
@@ -3173,19 +3216,19 @@
         <v>0</v>
       </c>
       <c r="L42" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M42" s="9">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="N42" s="9">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="O42" s="9">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="P42" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q42" s="9">
         <v>2</v>
@@ -3229,19 +3272,19 @@
         <v>1</v>
       </c>
       <c r="L43" s="9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M43" s="9">
         <v>4</v>
       </c>
       <c r="N43" s="9">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="O43" s="9">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="P43" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q43" s="9">
         <v>2</v>
@@ -3288,13 +3331,13 @@
         <v>0</v>
       </c>
       <c r="M44" s="9">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N44" s="9">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="O44" s="9">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="P44" s="9">
         <v>0</v>
@@ -3341,19 +3384,19 @@
         <v>0</v>
       </c>
       <c r="L45" s="9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M45" s="9">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="N45" s="9">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="O45" s="9">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="P45" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q45" s="9">
         <v>4</v>
@@ -3397,19 +3440,19 @@
         <v>1</v>
       </c>
       <c r="L46" s="9">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M46" s="9">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="N46" s="9">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="O46" s="9">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="P46" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q46" s="9">
         <v>5</v>
@@ -3453,19 +3496,19 @@
         <v>2</v>
       </c>
       <c r="L47" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M47" s="9">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="N47" s="9">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="O47" s="9">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="P47" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q47" s="9">
         <v>5</v>
@@ -3509,19 +3552,19 @@
         <v>0</v>
       </c>
       <c r="L48" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M48" s="9">
         <v>3</v>
       </c>
       <c r="N48" s="9">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="O48" s="9">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="P48" s="9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q48" s="9">
         <v>4</v>
@@ -3565,19 +3608,19 @@
         <v>2</v>
       </c>
       <c r="L49" s="9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M49" s="9">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="N49" s="9">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="O49" s="9">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="P49" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q49" s="9">
         <v>1</v>
@@ -3621,16 +3664,16 @@
         <v>1</v>
       </c>
       <c r="L50" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M50" s="9">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="N50" s="9">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="O50" s="9">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="P50" s="9">
         <v>0</v>
@@ -3677,19 +3720,19 @@
         <v>2</v>
       </c>
       <c r="L51" s="9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M51" s="9">
         <v>5</v>
       </c>
       <c r="N51" s="9">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="O51" s="9">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="P51" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q51" s="9">
         <v>0</v>
@@ -3733,19 +3776,19 @@
         <v>2</v>
       </c>
       <c r="L52" s="9">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M52" s="9">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N52" s="9">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="O52" s="9">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="P52" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q52" s="9">
         <v>4</v>
@@ -3789,19 +3832,19 @@
         <v>2</v>
       </c>
       <c r="L53" s="9">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M53" s="9">
         <v>4</v>
       </c>
       <c r="N53" s="9">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="O53" s="9">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="P53" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q53" s="9">
         <v>2</v>
@@ -3845,19 +3888,19 @@
         <v>1</v>
       </c>
       <c r="L54" s="9">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M54" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N54" s="9">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="O54" s="9">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="P54" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q54" s="9">
         <v>3</v>
@@ -3901,19 +3944,19 @@
         <v>2</v>
       </c>
       <c r="L55" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M55" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N55" s="9">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="O55" s="9">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="P55" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q55" s="9">
         <v>4</v>
@@ -3957,19 +4000,19 @@
         <v>1</v>
       </c>
       <c r="L56" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M56" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N56" s="9">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="O56" s="9">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="P56" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q56" s="9">
         <v>1</v>
@@ -4013,19 +4056,19 @@
         <v>2</v>
       </c>
       <c r="L57" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M57" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N57" s="9">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="O57" s="9">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="P57" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q57" s="9">
         <v>4</v>
@@ -4069,19 +4112,19 @@
         <v>1</v>
       </c>
       <c r="L58" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M58" s="9">
         <v>2</v>
       </c>
       <c r="N58" s="9">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="O58" s="9">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="P58" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q58" s="9">
         <v>1</v>
@@ -4125,19 +4168,19 @@
         <v>1</v>
       </c>
       <c r="L59" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M59" s="9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N59" s="9">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="O59" s="9">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="P59" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q59" s="9">
         <v>3</v>
@@ -4181,16 +4224,16 @@
         <v>0</v>
       </c>
       <c r="L60" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M60" s="9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N60" s="9">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="O60" s="9">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="P60" s="9">
         <v>0</v>
@@ -4237,16 +4280,16 @@
         <v>0</v>
       </c>
       <c r="L61" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M61" s="9">
         <v>2</v>
       </c>
       <c r="N61" s="9">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="O61" s="9">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="P61" s="9">
         <v>0</v>
@@ -4293,19 +4336,19 @@
         <v>0</v>
       </c>
       <c r="L62" s="9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M62" s="9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N62" s="9">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="O62" s="9">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="P62" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q62" s="9">
         <v>0</v>
@@ -4349,19 +4392,19 @@
         <v>0</v>
       </c>
       <c r="L63" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M63" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N63" s="9">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="O63" s="9">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="P63" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q63" s="9">
         <v>1</v>
@@ -4405,16 +4448,16 @@
         <v>0</v>
       </c>
       <c r="L64" s="9">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M64" s="9">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N64" s="9">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="O64" s="9">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="P64" s="9">
         <v>0</v>
@@ -4461,16 +4504,16 @@
         <v>0</v>
       </c>
       <c r="L65" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M65" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N65" s="9">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="O65" s="9">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="P65" s="9">
         <v>0</v>
@@ -4517,19 +4560,19 @@
         <v>0</v>
       </c>
       <c r="L66" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M66" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N66" s="9">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="O66" s="9">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="P66" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q66" s="9">
         <v>1</v>
@@ -4541,7 +4584,7 @@
     <row r="67" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D67" s="13"/>
       <c r="F67" s="13"/>
-      <c r="P67" s="13"/>
+      <c r="O67" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -4549,7 +4592,7 @@
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="M1:P1"/>
+    <mergeCell ref="L1:O1"/>
     <mergeCell ref="C1:E1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
